--- a/项目计划/项目计划.xlsx
+++ b/项目计划/项目计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,15 +62,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>销售管理部份功能内容讨论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭俊、汪人杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售订单、销售收款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购管理部份功能内容讨论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>供应商、客户信息、产品信息、报价管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>销售管理部份功能内容讨论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭俊、汪人杰</t>
+    <t>采购订单、物资基础信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周桦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -78,7 +102,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>采购管理部份功能内容讨论</t>
+    <t>销售管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购订单、物资基础信息管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购功能交底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭俊、周桦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -172,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -198,6 +238,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -499,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -549,7 +590,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -575,7 +616,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="5">
         <v>41924</v>
@@ -584,10 +625,10 @@
         <v>41924</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -603,16 +644,94 @@
         <v>1</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="8">
         <v>41931</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="8">
+        <v>41938</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="8">
+        <v>41938</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="8">
+        <v>41943</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="8">
+        <v>41932</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/项目计划/项目计划.xlsx
+++ b/项目计划/项目计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,11 +114,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>采购功能交底</t>
+    <t>系统管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周桦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购管理部份功能内容交底讨论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭俊、汪人杰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>郭俊、周桦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司组织、人员管理、用户管理、角色管理、菜单权限、操作权限---（服务端功能）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -212,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -223,13 +239,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -239,6 +252,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -540,198 +570,231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="16">
         <v>41930</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="16">
         <v>41930</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="16">
         <v>41924</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="16">
         <v>41924</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
+    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="16">
         <v>41931</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="D6" s="16">
+        <v>41931</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="8">
-        <v>41938</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="13" t="s">
+      <c r="B7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="16">
+        <v>41932</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="8">
+      <c r="B8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="16">
         <v>41938</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D8" s="13"/>
+      <c r="E8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="8">
-        <v>41943</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="B9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="16">
+        <v>41938</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F9" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="16">
+        <v>41943</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C11" s="16">
         <v>41932</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="D11" s="16">
+        <v>41932</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="F11" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B13" s="10"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/项目计划/项目计划.xlsx
+++ b/项目计划/项目计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,14 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>报价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售订单、销售收款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>销售管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,6 +127,62 @@
   </si>
   <si>
     <t>公司组织、人员管理、用户管理、角色管理、菜单权限、操作权限---（服务端功能）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购订单、物资基础信息管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品报价单管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014/10/26~27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品报价单界面再次讨论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭俊、汪人杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>询价单界面设计交底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭俊、周桦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购订单数据库设计讨论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>询价单数据库设计讨论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMS数据库设计文档git更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭俊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新两次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMS界面设计文档需求书编制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价单、询价单、销售订单、采购订单等界面；系统管理数据库说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -228,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -251,11 +299,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -570,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -606,66 +650,66 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="14">
         <v>41930</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="17">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>41930</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <v>41924</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="14">
         <v>41924</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
@@ -673,19 +717,19 @@
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>41931</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="14">
         <v>41931</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>16</v>
       </c>
     </row>
@@ -693,108 +737,201 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="14">
+        <v>41932</v>
+      </c>
+      <c r="D7" s="14">
+        <v>41932</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="16">
-        <v>41932</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>22</v>
+      <c r="F7" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="16">
+      <c r="B8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="14">
         <v>41938</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>22</v>
+      <c r="F8" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>41938</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>19</v>
+      <c r="F9" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="16">
-        <v>41943</v>
-      </c>
-      <c r="D10" s="13"/>
+      <c r="B10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="14">
+        <v>41951</v>
+      </c>
+      <c r="D10" s="11"/>
       <c r="E10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>20</v>
+      <c r="F10" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="16">
+      <c r="B11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="14">
         <v>41932</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="14">
         <v>41932</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="10"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3"/>
+      <c r="B13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="14">
+        <v>41938</v>
+      </c>
+      <c r="D13" s="11">
+        <v>41938</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3"/>
+      <c r="B14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="14">
+        <v>41939</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3"/>
+      <c r="B15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="14">
+        <v>41939</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3"/>
+      <c r="B16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="14">
+        <v>41939</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3"/>
+      <c r="B17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3"/>
+      <c r="B18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="14">
+        <v>41951</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
